--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1913.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1913.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8396CB8-5DF8-412A-9DE1-92D918A790C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6E416E-331B-470B-879E-DE001B494E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89910" yWindow="240" windowWidth="24855" windowHeight="22575" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89130" yWindow="930" windowWidth="24855" windowHeight="22575" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -803,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -833,8 +833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4740,7 +4741,7 @@
         <v>624.5</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" ref="E68:E91" si="9">B68+C68-D68</f>
+        <f t="shared" ref="E68:E89" si="9">B68+C68-D68</f>
         <v>0</v>
       </c>
       <c r="F68" s="2"/>
@@ -6016,7 +6017,7 @@
         <v>312.89999999999998</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" ref="E68:E110" si="18">B90+C90-D90</f>
+        <f t="shared" ref="E90:E110" si="18">B90+C90-D90</f>
         <v>0</v>
       </c>
       <c r="F90" s="2"/>
@@ -6840,7 +6841,7 @@
         <v>57.2</v>
       </c>
       <c r="J104" s="4">
-        <f t="shared" ref="J68:J110" si="19">G104+H104-I104</f>
+        <f t="shared" ref="J104:J110" si="19">G104+H104-I104</f>
         <v>0</v>
       </c>
       <c r="K104" s="2"/>
